--- a/Jogos_do_Dia/2023-10-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="K2" t="n">
-        <v>3.64</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>4.35</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -739,10 +739,10 @@
         <v>2.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AB2" t="n">
         <v>1.67</v>
@@ -754,43 +754,43 @@
         <v>2.63</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -833,10 +833,10 @@
         <v>1.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -878,10 +878,10 @@
         <v>2.95</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AB3" t="n">
         <v>1.82</v>
@@ -969,13 +969,13 @@
         <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="K4" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>4.11</v>
+        <v>4.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.1</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
@@ -1017,10 +1017,10 @@
         <v>2.05</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AB4" t="n">
         <v>1.77</v>
@@ -1032,43 +1032,43 @@
         <v>3.28</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="K5" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.35</v>
@@ -1135,10 +1135,10 @@
         <v>3.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1156,10 +1156,10 @@
         <v>2.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" t="n">
         <v>1.87</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.76</v>
+        <v>2.08</v>
       </c>
       <c r="K7" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>3.22</v>
       </c>
       <c r="M7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N7" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
         <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.35</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.59</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,128 +1503,128 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.43</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -1646,70 +1646,70 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>1.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Z9" t="n">
         <v>1.82</v>
@@ -1718,52 +1718,52 @@
         <v>1.06</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
       </c>
       <c r="AG9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN9" t="n">
         <v>2.75</v>
       </c>
-      <c r="AH9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2.87</v>
-      </c>
       <c r="AO9" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10">
@@ -1785,70 +1785,70 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.53</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R10" t="n">
-        <v>2.66</v>
+        <v>2.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
         <v>1.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Z10" t="n">
         <v>1.82</v>
@@ -1857,52 +1857,52 @@
         <v>1.06</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.56</v>
+        <v>1.29</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AF10" t="n">
         <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11">
@@ -1933,46 +1933,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>1.95</v>
@@ -1981,13 +1981,13 @@
         <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
         <v>1.43</v>
@@ -2005,13 +2005,13 @@
         <v>2.86</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="AH11" t="n">
         <v>1.18</v>
